--- a/Dissertation 2023 - Bachelor Degree/EOS - Tweets 2022/End of Season - Results.xlsx
+++ b/Dissertation 2023 - Bachelor Degree/EOS - Tweets 2022/End of Season - Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e55a912db83fd400/Desktop/DissertationRepository2023/Dissertation 2023 - Bachelor Degree/EOS - Tweets 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1344" documentId="8_{FBA9DD5E-94DE-4AB8-BBD1-DB6134569752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CBF4B39-43D4-45FE-88D4-26E20186D337}"/>
+  <xr:revisionPtr revIDLastSave="1372" documentId="8_{FBA9DD5E-94DE-4AB8-BBD1-DB6134569752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A877E4CF-1728-4D7B-A818-A649D05A2AA5}"/>
   <bookViews>
-    <workbookView xWindow="80280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D5BCA8A6-9DC3-4B4C-BF4E-F75F4C8CA15B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D5BCA8A6-9DC3-4B4C-BF4E-F75F4C8CA15B}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS Results" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
   <si>
     <t>Liverpool</t>
   </si>
@@ -274,6 +274,18 @@
   <si>
     <t>0.25]</t>
   </si>
+  <si>
+    <t>Very Low PPG: 0 - 0.95</t>
+  </si>
+  <si>
+    <t>Low PPG: 0.95 - 1.33</t>
+  </si>
+  <si>
+    <t>High PPG: 2 -2.5</t>
+  </si>
+  <si>
+    <t>Medium PPG: 1.34 - 1.99</t>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -415,12 +427,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -523,121 +539,147 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-MT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-MT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'EOS Tweets'!$A$1:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>Man Utd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Liverpool</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Newcastle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Chelsea</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Leeds</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Arsenal</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>Spurs</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Man City</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Aston Villa</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Brentford</c:v>
+                <c:pt idx="9">
+                  <c:v>Everton</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>Crystal Palace</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Southampton</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Leicester</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Brighton</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
+                  <c:v>West Ham</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Norwich</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Watford</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Wolves</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Burnley</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Chelsea</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Crystal Palace</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Everton</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Leeds</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Leicester</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Liverpool</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Man City</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Man Utd</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Newcastle</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Norwich</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Southampton</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Spurs</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Watford</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>West Ham</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>Wolves</c:v>
+                  <c:v>Brentford</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,72 +691,71 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>132606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23376</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>21254</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>20752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17457</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>15603</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3203</c:v>
+                <c:pt idx="9">
+                  <c:v>13376</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>12124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10525</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8976</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8621</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
+                  <c:v>8573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5430</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5055</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3487</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>34943</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>13376</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23376</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83131</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17457</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>132606</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53061</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8356</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10525</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20752</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5430</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8573</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>5055</c:v>
+                  <c:v>3203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1B2-4052-8F2D-C135601D198F}"/>
+              <c16:uniqueId val="{00000000-F30D-4621-9E17-2383B50E93A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -726,17 +767,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1185750591"/>
-        <c:axId val="1185740511"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="150184256"/>
+        <c:axId val="150180416"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="1185750591"/>
+        <c:axId val="150184256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Team</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -774,7 +871,7 @@
             <a:endParaRPr lang="en-MT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185740511"/>
+        <c:crossAx val="150180416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -782,7 +879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185740511"/>
+        <c:axId val="150180416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,6 +899,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Amount of Tweets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-MT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -833,7 +985,7 @@
             <a:endParaRPr lang="en-MT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185750591"/>
+        <c:crossAx val="150184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -847,13 +999,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -930,7 +1075,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1038,11 +1183,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1053,11 +1193,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1089,9 +1224,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,23 +1581,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A5143F-D8AB-B576-5D48-AC45256905CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1113CE38-758A-F6F0-F3D6-6CF3170813E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1649,7 @@
   <autoFilter ref="G1:H21" xr:uid="{66F03FD7-DAD1-4ACC-9F2A-01D894079C68}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{60C06CD5-A0B2-46CB-BAE8-A21B588BA679}" name="Team"/>
-    <tableColumn id="2" xr3:uid="{98E2BB2F-B968-44EE-913F-4BEBFAEF2D41}" name="PPG">
+    <tableColumn id="2" xr3:uid="{98E2BB2F-B968-44EE-913F-4BEBFAEF2D41}" name="PPG" dataDxfId="0">
       <calculatedColumnFormula>E2/B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1526,13 +1658,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2FC895D2-29E5-4C64-ACD7-C21198377059}" name="Table4" displayName="Table4" ref="A1:D3" totalsRowShown="0" dataDxfId="3" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2FC895D2-29E5-4C64-ACD7-C21198377059}" name="Table4" displayName="Table4" ref="A1:D3" totalsRowShown="0" dataDxfId="4" dataCellStyle="Comma">
   <autoFilter ref="A1:D3" xr:uid="{2FC895D2-29E5-4C64-ACD7-C21198377059}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5383DF5A-CE81-4E79-B511-BFA17B2300FA}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{9F9818FA-58B7-421B-83F8-523AD459673E}" name="Match Won" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4D6EB805-7D40-4B84-9069-B1FF2422644E}" name="Match Draw" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{1DE1439D-6934-4DA6-94D1-396C950BA24C}" name="Match Loss" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9F9818FA-58B7-421B-83F8-523AD459673E}" name="Match Won" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{4D6EB805-7D40-4B84-9069-B1FF2422644E}" name="Match Draw" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{1DE1439D-6934-4DA6-94D1-396C950BA24C}" name="Match Loss" dataDxfId="1" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1850,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F748DA-BAFB-45B4-B924-542E409C95CB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2898,172 +3030,175 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B1" s="9">
-        <v>21254</v>
+        <v>132606</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" s="9">
-        <v>15603</v>
+        <v>83131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9">
-        <v>3203</v>
+        <v>53061</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="9">
-        <v>8621</v>
+        <v>34943</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9">
-        <v>3487</v>
+        <v>23376</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9">
-        <v>34943</v>
+        <v>21254</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9">
-        <v>12124</v>
+        <v>20752</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9">
-        <v>13376</v>
+        <v>17457</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B9" s="9">
-        <v>23376</v>
+        <v>15603</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>8976</v>
+        <v>13376</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9">
-        <v>83131</v>
+        <v>12124</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B12" s="9">
-        <v>17457</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9">
-        <v>132606</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B14" s="9">
-        <v>53061</v>
+        <v>8621</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9">
-        <v>8356</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B16" s="9">
-        <v>10525</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B17" s="9">
-        <v>20752</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B18" s="9">
-        <v>5430</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B19" s="9">
-        <v>8573</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B20" s="9">
-        <v>5055</v>
+        <v>3203</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B20">
+    <sortCondition descending="1" ref="B1:B20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3071,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B361BE-28B9-4D24-9D2D-AB1A414BD75A}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H2:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3119,7 +3254,7 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="22">
         <f t="shared" ref="H2:H11" si="0">E2/B2</f>
         <v>1.2</v>
       </c>
@@ -3147,7 +3282,7 @@
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="22">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
@@ -3175,7 +3310,7 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="22">
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
@@ -3203,7 +3338,7 @@
       <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3228,7 +3363,7 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="22">
         <f t="shared" si="0"/>
         <v>2.1666666666666665</v>
       </c>
@@ -3253,7 +3388,7 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="22">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
@@ -3274,7 +3409,7 @@
       <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="22">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
@@ -3295,7 +3430,7 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="22">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
@@ -3316,7 +3451,7 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>
@@ -3337,7 +3472,7 @@
       <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="22">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
@@ -3358,7 +3493,7 @@
       <c r="G12" t="s">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="22">
         <f t="shared" ref="H12:H21" si="1">E12/B12</f>
         <v>2.5</v>
       </c>
@@ -3379,7 +3514,7 @@
       <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="22">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
@@ -3400,7 +3535,7 @@
       <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="22">
         <f t="shared" si="1"/>
         <v>1.3333333333333333</v>
       </c>
@@ -3421,7 +3556,7 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="22">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3442,7 +3577,7 @@
       <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="22">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -3463,7 +3598,7 @@
       <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="22">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -3484,7 +3619,7 @@
       <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="22">
         <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
@@ -3505,7 +3640,7 @@
       <c r="G19" t="s">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3526,7 +3661,7 @@
       <c r="G20" t="s">
         <v>36</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3547,17 +3682,38 @@
       <c r="G21" t="s">
         <v>37</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5795,7 +5951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E175D70C-BEE4-482D-995E-573AF36548F5}">
   <dimension ref="A1:AY41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:AH41"/>
     </sheetView>
   </sheetViews>
